--- a/TianShuMedia/document/渠道数据回流/1、渠道数据回流字段.xlsx
+++ b/TianShuMedia/document/渠道数据回流/1、渠道数据回流字段.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_workspace\spidersManager\TianShuMedia\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_workspace\spidersManager\TianShuMedia\document\渠道数据回流\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4739144D-5DD5-484D-8071-49078B8542DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944523C-EC67-4DFA-A08B-5B4814B40828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="488" activeTab="2" xr2:uid="{89279B40-7454-6345-9401-077F0B5EB9E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="248">
   <si>
     <t>公众号</t>
   </si>
@@ -888,24 +888,6 @@
   </si>
   <si>
     <r>
-      <t>微博号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（程序中需要cookie）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>web端</t>
     </r>
     <r>
@@ -946,6 +928,50 @@
   <si>
     <t>web端文章的简化url格式类似：https://mp.weixin.qq.com/s/cB1QcFax3qmka6KwNaWJJQ
 cB1QcFax3qmka6KwNaWJJQ就为web端的id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没给需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没给账号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>优酷</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（改成账号形式）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一点资讯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（改成账号形式）</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1784,15 +1810,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1800,12 +1817,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1816,31 +1827,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,6 +1953,36 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2286,46 +2312,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98" t="s">
+      <c r="D1" s="142"/>
+      <c r="E1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98" t="s">
+      <c r="J1" s="142"/>
+      <c r="K1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98" t="s">
+      <c r="L1" s="142"/>
+      <c r="M1" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98" t="s">
+      <c r="N1" s="142"/>
+      <c r="O1" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98" t="s">
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98" t="s">
+      <c r="R1" s="142"/>
+      <c r="S1" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="98"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -4005,23 +4031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="71" t="s">
@@ -4821,712 +4847,712 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="101" customWidth="1"/>
-    <col min="2" max="2" width="35.07421875" style="102" customWidth="1"/>
-    <col min="3" max="4" width="12.4609375" style="101" customWidth="1"/>
-    <col min="5" max="6" width="11.3046875" style="101" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" style="101" customWidth="1"/>
-    <col min="8" max="8" width="39.53515625" style="101" customWidth="1"/>
-    <col min="9" max="9" width="52.3828125" style="101" customWidth="1"/>
-    <col min="10" max="11" width="12.15234375" style="101" customWidth="1"/>
-    <col min="12" max="12" width="27.765625" style="101" customWidth="1"/>
-    <col min="13" max="13" width="11.69140625" style="101" customWidth="1"/>
-    <col min="14" max="15" width="11.69140625" style="150" customWidth="1"/>
-    <col min="16" max="16384" width="10.84375" style="101"/>
+    <col min="1" max="1" width="18" style="98" customWidth="1"/>
+    <col min="2" max="2" width="35.07421875" style="99" customWidth="1"/>
+    <col min="3" max="4" width="12.4609375" style="98" customWidth="1"/>
+    <col min="5" max="6" width="11.3046875" style="98" customWidth="1"/>
+    <col min="7" max="7" width="35.921875" style="98" customWidth="1"/>
+    <col min="8" max="8" width="39.53515625" style="98" customWidth="1"/>
+    <col min="9" max="9" width="52.3828125" style="98" customWidth="1"/>
+    <col min="10" max="11" width="12.15234375" style="98" customWidth="1"/>
+    <col min="12" max="12" width="21.84375" style="98" customWidth="1"/>
+    <col min="13" max="13" width="30.53515625" style="98" customWidth="1"/>
+    <col min="14" max="15" width="11.69140625" style="140" customWidth="1"/>
+    <col min="16" max="16384" width="10.84375" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="104" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="107" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="150" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="104" t="s">
+      <c r="I2" s="151"/>
+      <c r="J2" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="107" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="N2" s="111" t="s">
+      <c r="N2" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="114" t="s">
+      <c r="F3" s="147"/>
+      <c r="G3" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114" t="s">
+      <c r="K3" s="147"/>
+      <c r="L3" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="N3" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="149"/>
+      <c r="P3" s="107"/>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="105">
+        <v>2</v>
+      </c>
+      <c r="D4" s="105">
+        <v>2</v>
+      </c>
+      <c r="E4" s="105">
+        <v>2</v>
+      </c>
+      <c r="F4" s="105">
+        <v>2</v>
+      </c>
+      <c r="G4" s="105">
+        <v>6</v>
+      </c>
+      <c r="H4" s="105">
+        <v>5</v>
+      </c>
+      <c r="I4" s="105">
+        <v>5</v>
+      </c>
+      <c r="J4" s="105">
+        <v>7</v>
+      </c>
+      <c r="K4" s="105">
+        <v>7</v>
+      </c>
+      <c r="L4" s="105">
+        <v>3</v>
+      </c>
+      <c r="M4" s="106"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="N3" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="117"/>
-    </row>
-    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="105" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="114">
-        <v>2</v>
-      </c>
-      <c r="D4" s="114">
-        <v>2</v>
-      </c>
-      <c r="E4" s="114">
-        <v>2</v>
-      </c>
-      <c r="F4" s="114">
-        <v>2</v>
-      </c>
-      <c r="G4" s="114">
-        <v>6</v>
-      </c>
-      <c r="H4" s="114">
-        <v>5</v>
-      </c>
-      <c r="I4" s="114">
-        <v>5</v>
-      </c>
-      <c r="J4" s="114">
-        <v>7</v>
-      </c>
-      <c r="K4" s="114">
-        <v>7</v>
-      </c>
-      <c r="L4" s="114">
-        <v>3</v>
-      </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119"/>
-    </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="120" t="s">
+      <c r="I5" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="121" t="s">
+      <c r="M5" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="O5" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="121" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="121" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="121" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="128"/>
+      <c r="I10" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="123"/>
+      <c r="I11" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="127"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="130"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="128"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="120"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="127"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+    </row>
+    <row r="23" spans="1:15" ht="95" x14ac:dyDescent="0.35">
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="121" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="O5" s="123" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="126"/>
-      <c r="N6" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" s="127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="130" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" s="127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="N8" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="O8" s="135" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-    </row>
-    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="136" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="134"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="139" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="137"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="O11" s="127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="129" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-    </row>
-    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-    </row>
-    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-    </row>
-    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="M15" s="130"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-    </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="146" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="147" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="145" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="146" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="137"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="146" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-    </row>
-    <row r="23" spans="1:15" ht="95" x14ac:dyDescent="0.35">
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="151" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" s="151" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5552,7 +5578,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5636,6 +5662,9 @@
       <c r="B7" s="97">
         <v>43825</v>
       </c>
+      <c r="C7" s="95" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="95" t="s">
@@ -5654,6 +5683,9 @@
       </c>
       <c r="B9" s="95" t="s">
         <v>238</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
